--- a/data/income_statement/2digits/size/37_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/37_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>37-Sewerage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>37-Sewerage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15416.32273</v>
+        <v>16085.42972</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13524.4777</v>
+        <v>13939.37571</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>34738.25448</v>
+        <v>36182.60374</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20902.88123</v>
+        <v>21792.58982</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27873.56798</v>
+        <v>29288.86272</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>30335.93978</v>
+        <v>31807.35807</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>28768.60587</v>
+        <v>33221.20063</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>28067.33688</v>
+        <v>31407.28628</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>28602.57758</v>
+        <v>32146.29106</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>85910.26001</v>
+        <v>92092.07051000001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>95560.7105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>108824.11435</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>95617.716</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>14070.57457</v>
+        <v>14733.68156</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12603.73851</v>
+        <v>13011.31705</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>34155.76021</v>
+        <v>35585.61326</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18822.87542</v>
+        <v>19658.32637</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>25717.40085</v>
+        <v>27129.27559</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28234.0582</v>
+        <v>29687.05399</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>27998.15375</v>
+        <v>32236.48872</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>27610.09086</v>
+        <v>30809.69532</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>27627.28932</v>
+        <v>30617.21258</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>80867.29459</v>
+        <v>86114.39559999999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>90853.45752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>103582.7653</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>87058</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>858.1059300000001</v>
@@ -1037,7 +953,7 @@
         <v>182.1172</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1455.4426</v>
+        <v>1508.959</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1284.35175</v>
@@ -1046,70 +962,80 @@
         <v>1121.77906</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>652.94999</v>
+        <v>718.66621</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>95.99686</v>
+        <v>233.83769</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>192.86749</v>
+        <v>630.4426099999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3931.10487</v>
+        <v>4105.78592</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2038.22329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2369.46943</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5159.858</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>487.64223</v>
+        <v>493.64223</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>629.4127900000001</v>
+        <v>636.73226</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>400.37707</v>
+        <v>414.87328</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>624.5632099999999</v>
+        <v>625.30445</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>871.81538</v>
+        <v>875.23538</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>980.10252</v>
+        <v>998.52502</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>117.50213</v>
+        <v>266.0457</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>361.24916</v>
+        <v>363.75327</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>782.4207700000001</v>
+        <v>898.63587</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1111.86055</v>
+        <v>1871.88899</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2669.02969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2871.87962</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3399.858</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>25.14939</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>37.28301999999999</v>
+        <v>71.58302</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>11.69353</v>
@@ -1118,37 +1044,42 @@
         <v>18.37854</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>24.69791</v>
+        <v>31.63903</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>89.31057000000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>38.35236</v>
+        <v>41.10736</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>40.81809</v>
+        <v>44.87539</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>55.29542</v>
+        <v>56.10722</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>258.00072</v>
+        <v>346.46983</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>231.24567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>659.1776</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1449.652</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>24.59939</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>37.28301999999999</v>
+        <v>71.58302</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>11.69353</v>
@@ -1157,31 +1088,36 @@
         <v>17.97854</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16.65878</v>
+        <v>23.5999</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>70.02419999999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>34.87778</v>
+        <v>37.63278</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>40.66809</v>
+        <v>44.72539</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>54.54542</v>
+        <v>55.35722</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>249.05072</v>
+        <v>337.51983</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>214.08541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>641.91734</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1422.208</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>17.16026</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>27.444</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.55</v>
@@ -1253,91 +1194,106 @@
         <v>0</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>15391.17334</v>
+        <v>16060.28033</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>13487.19468</v>
+        <v>13867.79269</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>34726.56095000001</v>
+        <v>36170.91021</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20884.50269</v>
+        <v>21774.21128</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>27848.87007</v>
+        <v>29257.22369</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>30246.62921</v>
+        <v>31718.0475</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28730.25351</v>
+        <v>33180.09327</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>28026.51879</v>
+        <v>31362.41089</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>28547.28216</v>
+        <v>32090.18384</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>85652.25929</v>
+        <v>91745.60068</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>95329.46483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>108164.93675</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>94168.064</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9878.52123</v>
+        <v>10395.98255</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8706.674419999999</v>
+        <v>8838.18771</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>29135.85384</v>
+        <v>30159.5117</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>16355.33218</v>
+        <v>16899.66588</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>20553.71244</v>
+        <v>22303.68932</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>22352.1734</v>
+        <v>23058.06514</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>23843.09667</v>
+        <v>26812.02089</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>18949.75681</v>
+        <v>21533.09865</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>18065.3728</v>
+        <v>21055.32129</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>65243.20209000001</v>
+        <v>70903.06420000001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>76155.68277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>85997.03934999999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>78311.235</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2744.47486</v>
@@ -1349,112 +1305,127 @@
         <v>881.18723</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>742.83178</v>
+        <v>971.20952</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>2634.00097</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2125.29127</v>
+        <v>2221.80012</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>708.1334899999999</v>
+        <v>1510.07525</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3531.83225</v>
+        <v>4112.14681</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>553.7439000000001</v>
+        <v>557.4023199999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1286.49116</v>
+        <v>1683.97751</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8195.030500000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10277.05169</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2556.833</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1706.59835</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1232.86361</v>
+        <v>1263.96475</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3730.19602</v>
+        <v>3738.6706</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1975.41744</v>
+        <v>2096.75029</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5333.93412</v>
+        <v>5870.87938</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3410.06257</v>
+        <v>3412.41757</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>860.62251</v>
+        <v>863.29501</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2178.57054</v>
+        <v>2715.84238</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2724.8617</v>
+        <v>3225.99577</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>12470.90823</v>
+        <v>13820.1326</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>14214.91863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17931.23646</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15811.082</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5427.44802</v>
+        <v>5944.90934</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7048.47579</v>
+        <v>7148.887940000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>24524.47059</v>
+        <v>25539.65387</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>13637.08296</v>
+        <v>13831.70607</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>12585.77735</v>
+        <v>13792.85897</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>16736.5322</v>
+        <v>17325.25505</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22146.37175</v>
+        <v>24310.68171</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13158.50656</v>
+        <v>14624.262</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>14546.51296</v>
+        <v>17031.66896</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>51319.2984</v>
+        <v>54374.88981</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>52404.87413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>56431.45168999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>59092.682</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1469,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>80.28736000000001</v>
+        <v>98.5924</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>127.96892</v>
@@ -1484,94 +1455,109 @@
         <v>240.25424</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>166.5043</v>
+        <v>1024.06428</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1340.85951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1357.29951</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>850.638</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>5512.65211</v>
+        <v>5664.29778</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4780.520259999999</v>
+        <v>5029.60498</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5590.70711</v>
+        <v>6011.39851</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4529.17051</v>
+        <v>4874.5454</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7295.15763</v>
+        <v>6953.53437</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7894.455809999999</v>
+        <v>8659.98236</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4887.15684</v>
+        <v>6368.07238</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9076.761980000001</v>
+        <v>9829.312240000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>10481.90936</v>
+        <v>11034.86255</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>20409.0572</v>
+        <v>20842.53648</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>19173.78206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22167.8974</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15856.829</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4393.195769999999</v>
+        <v>5124.7453</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4652.17135</v>
+        <v>5135.0391</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4325.708809999999</v>
+        <v>4672.945320000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3422.67296</v>
+        <v>4422.103980000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4648.31945</v>
+        <v>5936.977150000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5365.799690000001</v>
+        <v>6161.36724</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5997.89512</v>
+        <v>8069.12871</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6106.952139999999</v>
+        <v>7722.06214</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7887.810179999999</v>
+        <v>8642.63193</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>14167.33869</v>
+        <v>15367.45725</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>14928.49844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19041.81913</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>22032.374</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>944.66354</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>847.93683</v>
+        <v>850.65045</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>149.4528</v>
+        <v>150.8378</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>84.6112</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>215.38489</v>
+        <v>240.80989</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>155.3282</v>
+        <v>189.24415</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>187.39223</v>
+        <v>187.62952</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>233.55074</v>
+        <v>246.88498</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>452.66199</v>
+        <v>586.11244</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>2605.79272</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>784.01972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1459.47698</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>990.48</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3448.53223</v>
+        <v>4180.08176</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3804.23452</v>
+        <v>4284.388650000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4176.25601</v>
+        <v>4522.10752</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3338.06176</v>
+        <v>4337.49278</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4360.59455</v>
+        <v>5623.82725</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5210.47149</v>
+        <v>5972.12309</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5810.50289</v>
+        <v>7881.49919</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5858.16059</v>
+        <v>7459.93635</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7421.694860000001</v>
+        <v>8043.06616</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>11557.12837</v>
+        <v>12757.24693</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>14144.47872</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17582.34215</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21041.894</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1119.45634</v>
+        <v>539.5524799999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>128.34891</v>
+        <v>-105.43412</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1264.9983</v>
+        <v>1338.45319</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1106.49755</v>
+        <v>452.44142</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2646.83818</v>
+        <v>1016.55722</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2528.65612</v>
+        <v>2498.61512</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1110.73828</v>
+        <v>-1701.05633</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2969.80984</v>
+        <v>2107.2501</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2594.09918</v>
+        <v>2392.23062</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6241.71851</v>
+        <v>5475.07923</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4245.28362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3126.07827</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6175.545</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>28.63504</v>
+        <v>505.43816</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>15.53618</v>
+        <v>43.50247</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>69.58007000000001</v>
+        <v>837.9604899999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>67.23353999999999</v>
+        <v>1178.83237</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>264.92439</v>
+        <v>1742.03885</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>337.75855</v>
+        <v>935.4057299999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>785.7447099999999</v>
+        <v>19883.44102</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>242.72062</v>
+        <v>1742.6579</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>127.13535</v>
+        <v>1122.67738</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1196.18107</v>
+        <v>11616.50043</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>494.5538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6797.33814</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15076.885</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,55 +1851,65 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>2320.02877</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1810.14227</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11.51415</v>
+        <v>25.49353</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>6.17231</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>11.43684</v>
+        <v>21.64057</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>34.23008</v>
+        <v>50.25998000000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>43.88389</v>
+        <v>495.99677</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>58.97577</v>
+        <v>515.15868</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>56.76032</v>
+        <v>725.81558</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>57.52011</v>
+        <v>605.89503</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>41.24113</v>
+        <v>644.17174</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>35.75727</v>
+        <v>1143.40998</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>259.41447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1544.95007</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3042.415</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1943,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>2055.36884</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3746.34</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0.3209</v>
+        <v>8.85802</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.43023</v>
+        <v>2.35352</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.26995</v>
+        <v>656.51995</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.96009</v>
+        <v>1094.71075</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0</v>
+        <v>374.30096</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>0.75781</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1.11239</v>
+        <v>14.69922</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0.11099</v>
+        <v>1.3009</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.04128</v>
+        <v>0.9761799999999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>0</v>
+        <v>5.29529</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.5535399999999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>51.659</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>16.68526</v>
+        <v>470.97188</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>3.25986</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>64.4273</v>
+        <v>115.6993</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>34.65130000000001</v>
+        <v>36.34983999999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>115.13163</v>
+        <v>765.83225</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>248.91557</v>
+        <v>390.37984</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>458.31869</v>
+        <v>9228.26614</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>150.96085</v>
+        <v>1101.32133</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>58.86056</v>
+        <v>437.28104</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>927.7901899999999</v>
+        <v>7624.22901</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>118.11238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3316.5915</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8087.601</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,23 +2164,28 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>0.11473</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5.67378</v>
+        <v>31.71678</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-6.55402</v>
+        <v>44.10067</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>-2.60793</v>
+        <v>-2.4882</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>105.90887</v>
@@ -2138,64 +2194,74 @@
         <v>29.1094</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>269.55331</v>
+        <v>7859.29124</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>34.12867</v>
+        <v>34.14064</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>26.99238</v>
+        <v>40.24842</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>232.63361</v>
+        <v>523.53738</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>117.02695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>125.10076</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>148.838</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>49.14977</v>
+        <v>440.05863</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>21.19701</v>
+        <v>47.71416000000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>153.19823</v>
+        <v>169.06518</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>32.14121</v>
+        <v>49.28783</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>227.74624</v>
+        <v>2167.23598</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>692.4198699999999</v>
+        <v>734.45735</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>722.78932</v>
+        <v>8329.554330000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>211.69858</v>
+        <v>868.9300999999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>72.42881</v>
+        <v>272.66733</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>987.7397099999999</v>
+        <v>6880.57192</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>98.81175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2790.84011</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6999.476</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>13.38836</v>
@@ -2228,13 +2294,18 @@
         <v>7.92873</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1.58813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11.08813</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>11.4374</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.3252</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>15.22732</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12.86932</v>
+        <v>403.77818</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>14.15437</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>137.58682</v>
+        <v>153.45377</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>21.16878</v>
+        <v>37.95032</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>113.27937</v>
+        <v>2052.76911</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>601.9667099999999</v>
+        <v>644.00419</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>582.7741</v>
+        <v>8151.16805</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>120.36705</v>
+        <v>762.336</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>44.18058</v>
+        <v>244.4191</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>778.96324</v>
+        <v>6671.79543</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>81.73209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2764.24934</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5291.927</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>22.56689</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6.112640000000001</v>
+        <v>32.62979</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>5.20757</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5.71138</v>
+        <v>6.07646</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>10.94046</v>
@@ -2450,103 +2546,118 @@
         <v>0.87566</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>124.95727</v>
+        <v>163.32833</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31.17488</v>
+        <v>31.21013</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2.28823</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>200.84774</v>
+        <v>200.84776</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4.05413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4.06524</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1707.44</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>173.22213</v>
+        <v>183.55315</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>225.97526</v>
+        <v>297.09854</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>105.95651</v>
+        <v>136.98468</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>171.76469</v>
+        <v>172.07969</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>243.2763</v>
+        <v>542.9159100000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>260.787</v>
+        <v>299.42255</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>238.55801</v>
+        <v>465.95622</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>240.68469</v>
+        <v>336.43008</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>113.07612</v>
+        <v>370.01524</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>504.76459</v>
+        <v>576.17578</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>485.62264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>920.77003</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>960.092</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>164.20089</v>
+        <v>174.53191</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>222.0486</v>
+        <v>293.17188</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>105.95651</v>
+        <v>136.98468</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>171.76469</v>
+        <v>172.07969</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>243.2763</v>
+        <v>542.9159100000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>260.787</v>
+        <v>299.42255</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>238.55801</v>
+        <v>465.95622</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>234.43498</v>
+        <v>330.18037</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>113.07612</v>
+        <v>370.01524</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>504.30539</v>
+        <v>575.7165799999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>485.62264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>920.77003</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>959.4</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>9.021240000000001</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>925.71948</v>
+        <v>421.37886</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-103.28718</v>
+        <v>-406.74435</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1075.42363</v>
+        <v>1870.36382</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>969.8251899999999</v>
+        <v>1409.90627</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2440.74003</v>
+        <v>48.44418</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1913.2078</v>
+        <v>2400.14095</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1286.3409</v>
+        <v>9386.87414</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2760.14719</v>
+        <v>2644.54782</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2535.7296</v>
+        <v>2872.22543</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5945.395280000001</v>
+        <v>9634.831960000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4155.403029999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6211.806269999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>941.772</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>186.3144</v>
+        <v>293.98364</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>438.54166</v>
+        <v>447.97682</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>434.76919</v>
+        <v>535.88302</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>422.68312</v>
+        <v>447.90382</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>206.83119</v>
+        <v>207.88059</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>437.98512</v>
+        <v>490.06937</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>107.40623</v>
+        <v>164.54392</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>296.22153</v>
+        <v>384.51316</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>159.98684</v>
+        <v>652.3471999999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>639.41413</v>
+        <v>719.53694</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>507.59419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>717.35385</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1063.574</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2687,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0</v>
+        <v>18.10946</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>4.89837</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>186.3144</v>
+        <v>293.98364</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>438.54166</v>
+        <v>447.97682</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>434.09479</v>
+        <v>535.20862</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>413.37459</v>
+        <v>438.59529</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>143.72033</v>
+        <v>144.76973</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>437.98512</v>
+        <v>490.06937</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>107.40623</v>
+        <v>164.54392</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>296.22153</v>
+        <v>366.4037</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>155.08847</v>
+        <v>647.4488299999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>639.41413</v>
+        <v>719.53694</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>507.59419</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>717.35385</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1063.574</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>202.7283</v>
+        <v>328.64422</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>211.00198</v>
+        <v>211.25938</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1869.3887</v>
+        <v>2625.90182</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>355.94686</v>
+        <v>433.67102</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>392.63029</v>
+        <v>450.02148</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3120.11426</v>
+        <v>3164.51817</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>171.99212</v>
+        <v>279.51504</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1343.01618</v>
+        <v>1363.48524</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>346.1355</v>
+        <v>418.21849</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3500.24733</v>
+        <v>3598.50307</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>471.7157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>990.85992</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>43054.493</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2.1172</v>
@@ -2815,26 +2956,31 @@
       <c r="M52" s="48" t="n">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>13.03091</v>
+        <v>13.15216</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>15.94378</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7.371689999999999</v>
+        <v>95.87848</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>39.29902</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1.99505</v>
+        <v>35.64832</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>20.25937</v>
@@ -2843,10 +2989,10 @@
         <v>2.15123</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2.96845</v>
+        <v>3.31425</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>11.00514</v>
+        <v>11.02333</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>0.2839</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>65.14427999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>41.812</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>187.58019</v>
+        <v>313.37486</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>195.0582</v>
+        <v>195.3156</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1862.01701</v>
+        <v>2530.02334</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>316.64784</v>
+        <v>394.372</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>390.63524</v>
+        <v>414.37316</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3099.85489</v>
+        <v>3144.2588</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>169.84089</v>
+        <v>277.36381</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1260.66773</v>
+        <v>1280.79099</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>241.46689</v>
+        <v>313.53169</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3429.46343</v>
+        <v>3527.71917</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>336.07142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>855.21564</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>42995.056</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>909.30558</v>
+        <v>386.71828</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>124.2525</v>
+        <v>-170.02691</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-359.19588</v>
+        <v>-219.65498</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1036.56145</v>
+        <v>1424.13907</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2254.94093</v>
+        <v>-193.69671</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-768.92134</v>
+        <v>-274.30785</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1350.92679</v>
+        <v>9271.90302</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1713.35254</v>
+        <v>1665.57574</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2349.58094</v>
+        <v>3106.35414</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3084.56208</v>
+        <v>6755.86583</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4191.28152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5938.300200000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-41049.147</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>285.25413</v>
+        <v>293.75048</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>237.35911</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>262.18396</v>
+        <v>416.64538</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>205.7611</v>
+        <v>375.00349</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>403.01206</v>
+        <v>509.11285</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>619.50834</v>
+        <v>697.7988399999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>395.98998</v>
+        <v>2587.0202</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>685.4425699999999</v>
+        <v>844.1370899999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>278.30029</v>
+        <v>345.27798</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>869.65761</v>
+        <v>1629.60763</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1078.61865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1743.27763</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1396.543</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>624.0514499999999</v>
+        <v>92.9678</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-113.10661</v>
+        <v>-407.38602</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-621.3798399999999</v>
+        <v>-636.30036</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>830.80035</v>
+        <v>1049.13558</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1851.92887</v>
+        <v>-702.80956</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1388.42968</v>
+        <v>-972.10669</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1746.91677</v>
+        <v>6684.882820000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1027.90997</v>
+        <v>821.4386500000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2071.28065</v>
+        <v>2761.07616</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2214.90447</v>
+        <v>5126.2582</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3112.66287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4195.02257</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-42445.69</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>146</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>